--- a/Data Files/Inventory/Demo Devices Data.xlsx
+++ b/Data Files/Inventory/Demo Devices Data.xlsx
@@ -28,10 +28,10 @@
     <t>0416010902-000005</t>
   </si>
   <si>
-    <t>PRD-LINE</t>
-  </si>
-  <si>
-    <t>54ff0494-32c0-e511-8288-d4c9ef67fe6f</t>
+    <t>WaHo008</t>
+  </si>
+  <si>
+    <t>89df7262-166c-e411-80d8-00155d83e77c</t>
   </si>
 </sst>
 </file>
